--- a/_stock/_세력봉_History.xlsx
+++ b/_stock/_세력봉_History.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,20 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>토</t>
-  </si>
-  <si>
-    <t>토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일</t>
-  </si>
-  <si>
-    <t>일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,6 +91,22 @@
   </si>
   <si>
     <t>STX그린로지스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대봉엘에스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스와이스틸텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루엠텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,6 +150,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
@@ -156,18 +159,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -184,23 +181,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -214,6 +202,9 @@
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,24 +486,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T15"/>
+  <dimension ref="A2:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="2.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="2.625" style="2" customWidth="1"/>
-    <col min="14" max="17" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,274 +508,382 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>45469</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45470</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45471</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45474</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45475</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45476</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45477</v>
+      </c>
+      <c r="I3" s="2">
+        <v>45478</v>
+      </c>
+      <c r="J3" s="2">
+        <v>45481</v>
+      </c>
+      <c r="K3" s="3">
+        <v>45482</v>
+      </c>
+      <c r="L3" s="3">
+        <v>45483</v>
+      </c>
+      <c r="M3" s="2">
+        <v>45484</v>
+      </c>
+      <c r="N3" s="3">
+        <v>45485</v>
+      </c>
+      <c r="O3" s="3">
+        <v>45486</v>
+      </c>
+      <c r="P3" s="2">
+        <v>45487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4265</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4350</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4420</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4075</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6">
+        <v>19460</v>
+      </c>
+      <c r="C5" s="5">
+        <v>18330</v>
+      </c>
+      <c r="D5" s="5">
+        <v>17990</v>
+      </c>
+      <c r="E5" s="5">
+        <v>17430</v>
+      </c>
+      <c r="F5" s="4">
+        <v>17770</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6">
+        <v>6290</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5850</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5800</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5730</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6">
+        <v>10510</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10230</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10150</v>
+      </c>
+      <c r="E7" s="5">
+        <v>10020</v>
+      </c>
+      <c r="F7" s="5">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6">
+        <v>4810</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4680</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4600</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4515</v>
+      </c>
+      <c r="F8" s="5">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6">
+        <v>9010</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8830</v>
+      </c>
+      <c r="E9" s="5">
+        <v>8060</v>
+      </c>
+      <c r="F9" s="5">
+        <v>7890</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3150</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3090</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2750</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6">
+        <v>7720</v>
+      </c>
+      <c r="D11" s="5">
+        <v>7050</v>
+      </c>
+      <c r="E11" s="4">
+        <v>7080</v>
+      </c>
+      <c r="F11" s="4">
+        <v>7090</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="B12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2895</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2725</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="B13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="6">
+        <v>6430</v>
+      </c>
+      <c r="E13" s="5">
+        <v>6290</v>
+      </c>
+      <c r="F13" s="4">
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="6">
+        <v>14990</v>
+      </c>
+      <c r="E14" s="6">
+        <v>15200</v>
+      </c>
+      <c r="F14" s="5">
+        <v>15130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="4">
-        <v>45469</v>
-      </c>
-      <c r="C3" s="4">
-        <v>45470</v>
-      </c>
-      <c r="D3" s="4">
-        <v>45471</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45472</v>
-      </c>
-      <c r="F3" s="5">
-        <v>45473</v>
-      </c>
-      <c r="G3" s="4">
-        <v>45474</v>
-      </c>
-      <c r="H3" s="4">
-        <v>45475</v>
-      </c>
-      <c r="I3" s="4">
-        <v>45476</v>
-      </c>
-      <c r="J3" s="4">
-        <v>45477</v>
-      </c>
-      <c r="K3" s="4">
-        <v>45478</v>
-      </c>
-      <c r="L3" s="5">
-        <v>45479</v>
-      </c>
-      <c r="M3" s="5">
-        <v>45480</v>
-      </c>
-      <c r="N3" s="4">
-        <v>45481</v>
-      </c>
-      <c r="O3" s="6">
-        <v>45482</v>
-      </c>
-      <c r="P3" s="6">
-        <v>45483</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>45484</v>
-      </c>
-      <c r="R3" s="6">
-        <v>45485</v>
-      </c>
-      <c r="S3" s="6">
-        <v>45486</v>
-      </c>
-      <c r="T3" s="4">
-        <v>45487</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="7">
-        <v>4265</v>
-      </c>
-      <c r="C4" s="7">
-        <v>4350</v>
-      </c>
-      <c r="D4" s="7">
-        <v>4420</v>
-      </c>
-      <c r="G4" s="8">
-        <v>4075</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="9">
-        <v>19460</v>
-      </c>
-      <c r="C5" s="8">
-        <v>18330</v>
-      </c>
-      <c r="D5" s="8">
-        <v>17990</v>
-      </c>
-      <c r="G5" s="8">
-        <v>17430</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="9">
-        <v>6290</v>
-      </c>
-      <c r="C6" s="8">
-        <v>5850</v>
-      </c>
-      <c r="D6" s="8">
-        <v>5800</v>
-      </c>
-      <c r="G6" s="8">
-        <v>5730</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="9">
-        <v>10510</v>
-      </c>
-      <c r="C7" s="8">
-        <v>10230</v>
-      </c>
-      <c r="D7" s="8">
-        <v>10150</v>
-      </c>
-      <c r="G7" s="8">
-        <v>10020</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="9">
-        <v>4810</v>
-      </c>
-      <c r="C8" s="8">
-        <v>4680</v>
-      </c>
-      <c r="D8" s="8">
-        <v>4600</v>
-      </c>
-      <c r="G8" s="8">
-        <v>4515</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="6">
+        <v>23050</v>
+      </c>
+      <c r="F15" s="5">
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7">
-        <v>9010</v>
-      </c>
-      <c r="D9" s="8">
-        <v>8830</v>
-      </c>
-      <c r="G9" s="8">
-        <v>8060</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="6">
+        <v>14210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="9">
-        <v>3150</v>
-      </c>
-      <c r="D10" s="8">
-        <v>3090</v>
-      </c>
-      <c r="G10" s="8">
-        <v>2750</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="9">
-        <v>7720</v>
-      </c>
-      <c r="D11" s="8">
-        <v>7050</v>
-      </c>
-      <c r="G11" s="7">
-        <v>7080</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2895</v>
-      </c>
-      <c r="G12" s="8">
-        <v>2725</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="7">
-        <v>6430</v>
-      </c>
-      <c r="G13" s="8">
-        <v>6290</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="7">
-        <v>14990</v>
-      </c>
-      <c r="G14" s="7">
-        <v>15200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="7">
-        <v>23050</v>
+      <c r="B18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="6">
+        <v>15490</v>
       </c>
     </row>
   </sheetData>

--- a/_stock/_세력봉_History.xlsx
+++ b/_stock/_세력봉_History.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github_Blog\jcseo1028.github.io\_stock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Repo_jcseo\Blog\jcseo1028.github.io\_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="26">
   <si>
     <t>수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,26 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLB생명과학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넥슨게임즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국비엔씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스오에스랩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,7 +137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +178,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -181,7 +209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -205,6 +233,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P18"/>
+  <dimension ref="A2:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H4" sqref="H4:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -605,6 +636,9 @@
       <c r="F4" s="4">
         <v>4260</v>
       </c>
+      <c r="G4" s="5">
+        <v>4095</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -625,6 +659,9 @@
       <c r="F5" s="4">
         <v>17770</v>
       </c>
+      <c r="G5" s="4">
+        <v>17870</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -645,6 +682,9 @@
       <c r="F6" s="5">
         <v>5430</v>
       </c>
+      <c r="G6" s="5">
+        <v>5380</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -665,6 +705,9 @@
       <c r="F7" s="5">
         <v>9500</v>
       </c>
+      <c r="G7" s="5">
+        <v>9310</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -685,6 +728,9 @@
       <c r="F8" s="5">
         <v>4270</v>
       </c>
+      <c r="G8" s="4">
+        <v>4525</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -705,6 +751,9 @@
       <c r="F9" s="5">
         <v>7890</v>
       </c>
+      <c r="G9" s="4">
+        <v>8170</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -725,6 +774,9 @@
       <c r="F10" s="4">
         <v>2785</v>
       </c>
+      <c r="G10" s="5">
+        <v>2600</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -745,6 +797,9 @@
       <c r="F11" s="4">
         <v>7090</v>
       </c>
+      <c r="G11" s="4">
+        <v>7380</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -765,6 +820,9 @@
       <c r="F12" s="5">
         <v>2655</v>
       </c>
+      <c r="G12" s="5">
+        <v>2615</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -785,6 +843,9 @@
       <c r="F13" s="4">
         <v>6350</v>
       </c>
+      <c r="G13" s="5">
+        <v>6100</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -799,11 +860,14 @@
       <c r="D14" s="6">
         <v>14990</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="8">
         <v>15200</v>
       </c>
       <c r="F14" s="5">
         <v>15130</v>
+      </c>
+      <c r="G14" s="5">
+        <v>14000</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -825,6 +889,9 @@
       <c r="F15" s="5">
         <v>20400</v>
       </c>
+      <c r="G15" s="4">
+        <v>21000</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -845,8 +912,11 @@
       <c r="F16" s="6">
         <v>14210</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="5">
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -865,8 +935,11 @@
       <c r="F17" s="6">
         <v>2975</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="4">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -884,6 +957,124 @@
       </c>
       <c r="F18" s="6">
         <v>15490</v>
+      </c>
+      <c r="G18" s="5">
+        <v>15490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="6">
+        <v>76800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="6">
+        <v>10640</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="6">
+        <v>17900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="6">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="6">
+        <v>10530</v>
       </c>
     </row>
   </sheetData>

--- a/_stock/_세력봉_History.xlsx
+++ b/_stock/_세력봉_History.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Repo_jcseo\Blog\jcseo1028.github.io\_stock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github_Blog\jcseo1028.github.io\_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="31">
   <si>
     <t>수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,26 @@
   </si>
   <si>
     <t>에스오에스랩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경창산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이넥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니테크노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLB바이오스탭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제이앤비</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -235,6 +255,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P23"/>
+  <dimension ref="A2:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H31"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -639,6 +662,12 @@
       <c r="G4" s="5">
         <v>4095</v>
       </c>
+      <c r="H4" s="5">
+        <v>3895</v>
+      </c>
+      <c r="I4" s="5">
+        <v>3845</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -662,6 +691,12 @@
       <c r="G5" s="4">
         <v>17870</v>
       </c>
+      <c r="H5" s="5">
+        <v>17700</v>
+      </c>
+      <c r="I5" s="5">
+        <v>17100</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -685,6 +720,12 @@
       <c r="G6" s="5">
         <v>5380</v>
       </c>
+      <c r="H6" s="5">
+        <v>5280</v>
+      </c>
+      <c r="I6" s="5">
+        <v>5260</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -708,6 +749,12 @@
       <c r="G7" s="5">
         <v>9310</v>
       </c>
+      <c r="H7" s="4">
+        <v>9640</v>
+      </c>
+      <c r="I7" s="4">
+        <v>9730</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -731,6 +778,12 @@
       <c r="G8" s="4">
         <v>4525</v>
       </c>
+      <c r="H8" s="5">
+        <v>4335</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4270</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -754,6 +807,12 @@
       <c r="G9" s="4">
         <v>8170</v>
       </c>
+      <c r="H9" s="5">
+        <v>8140</v>
+      </c>
+      <c r="I9" s="4">
+        <v>8500</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -777,6 +836,12 @@
       <c r="G10" s="5">
         <v>2600</v>
       </c>
+      <c r="H10" s="5">
+        <v>2515</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2450</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -800,6 +865,12 @@
       <c r="G11" s="4">
         <v>7380</v>
       </c>
+      <c r="H11" s="4">
+        <v>8200</v>
+      </c>
+      <c r="I11" s="4">
+        <v>8460</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -823,6 +894,12 @@
       <c r="G12" s="5">
         <v>2615</v>
       </c>
+      <c r="H12" s="4">
+        <v>2635</v>
+      </c>
+      <c r="I12" s="5">
+        <v>2510</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -846,6 +923,12 @@
       <c r="G13" s="5">
         <v>6100</v>
       </c>
+      <c r="H13" s="4">
+        <v>6180</v>
+      </c>
+      <c r="I13" s="5">
+        <v>6140</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -869,6 +952,12 @@
       <c r="G14" s="5">
         <v>14000</v>
       </c>
+      <c r="H14" s="4">
+        <v>14560</v>
+      </c>
+      <c r="I14" s="5">
+        <v>13750</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -892,6 +981,12 @@
       <c r="G15" s="4">
         <v>21000</v>
       </c>
+      <c r="H15" s="5">
+        <v>20350</v>
+      </c>
+      <c r="I15" s="4">
+        <v>20450</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -915,8 +1010,14 @@
       <c r="G16" s="5">
         <v>13900</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="5">
+        <v>13580</v>
+      </c>
+      <c r="I16" s="5">
+        <v>13110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -938,8 +1039,14 @@
       <c r="G17" s="4">
         <v>3030</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="5">
+        <v>2950</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -961,8 +1068,14 @@
       <c r="G18" s="5">
         <v>15490</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="9">
+        <v>15700</v>
+      </c>
+      <c r="I18" s="5">
+        <v>15010</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -984,8 +1097,14 @@
       <c r="G19" s="6">
         <v>76800</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="4">
+        <v>82100</v>
+      </c>
+      <c r="I19" s="4">
+        <v>93100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1007,8 +1126,14 @@
       <c r="G20" s="6">
         <v>10640</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="5">
+        <v>10410</v>
+      </c>
+      <c r="I20" s="6">
+        <v>11740</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1030,8 +1155,14 @@
       <c r="G21" s="6">
         <v>17900</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="4">
+        <v>19200</v>
+      </c>
+      <c r="I21" s="4">
+        <v>19390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1053,8 +1184,14 @@
       <c r="G22" s="6">
         <v>6110</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="5">
+        <v>6060</v>
+      </c>
+      <c r="I22" s="4">
+        <v>6220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1075,6 +1212,157 @@
       </c>
       <c r="G23" s="6">
         <v>10530</v>
+      </c>
+      <c r="H23" s="5">
+        <v>9840</v>
+      </c>
+      <c r="I23" s="5">
+        <v>9070</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="6">
+        <v>3120</v>
+      </c>
+      <c r="I24" s="4">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="6">
+        <v>18250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="6">
+        <v>4485</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="6">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="6">
+        <v>13760</v>
       </c>
     </row>
   </sheetData>

--- a/_stock/_세력봉_History.xlsx
+++ b/_stock/_세력봉_History.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="35">
   <si>
     <t>수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,22 @@
   </si>
   <si>
     <t>제이앤비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ씨푸드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLB파나진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨씨에스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P28"/>
+  <dimension ref="A2:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="G21" sqref="G21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -668,6 +684,9 @@
       <c r="I4" s="5">
         <v>3845</v>
       </c>
+      <c r="J4" s="4">
+        <v>4120</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -697,6 +716,9 @@
       <c r="I5" s="5">
         <v>17100</v>
       </c>
+      <c r="J5" s="4">
+        <v>17110</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -726,6 +748,9 @@
       <c r="I6" s="5">
         <v>5260</v>
       </c>
+      <c r="J6" s="4">
+        <v>5310</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -755,6 +780,9 @@
       <c r="I7" s="4">
         <v>9730</v>
       </c>
+      <c r="J7" s="4">
+        <v>10120</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -784,6 +812,9 @@
       <c r="I8" s="5">
         <v>4270</v>
       </c>
+      <c r="J8" s="4">
+        <v>4425</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -813,6 +844,9 @@
       <c r="I9" s="4">
         <v>8500</v>
       </c>
+      <c r="J9" s="4">
+        <v>8610</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -842,6 +876,9 @@
       <c r="I10" s="5">
         <v>2450</v>
       </c>
+      <c r="J10" s="4">
+        <v>2465</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -871,6 +908,9 @@
       <c r="I11" s="4">
         <v>8460</v>
       </c>
+      <c r="J11" s="4">
+        <v>8570</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -900,6 +940,9 @@
       <c r="I12" s="5">
         <v>2510</v>
       </c>
+      <c r="J12" s="5">
+        <v>2480</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -929,6 +972,9 @@
       <c r="I13" s="5">
         <v>6140</v>
       </c>
+      <c r="J13" s="4">
+        <v>7980</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -958,6 +1004,9 @@
       <c r="I14" s="5">
         <v>13750</v>
       </c>
+      <c r="J14" s="5">
+        <v>12840</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -987,6 +1036,9 @@
       <c r="I15" s="4">
         <v>20450</v>
       </c>
+      <c r="J15" s="4">
+        <v>20850</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1016,8 +1068,11 @@
       <c r="I16" s="5">
         <v>13110</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="4">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1045,8 +1100,11 @@
       <c r="I17" s="4">
         <v>2975</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="5">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1074,8 +1132,11 @@
       <c r="I18" s="5">
         <v>15010</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="6">
+        <v>17270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1103,8 +1164,11 @@
       <c r="I19" s="4">
         <v>93100</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="5">
+        <v>92200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1132,8 +1196,11 @@
       <c r="I20" s="6">
         <v>11740</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="8">
+        <v>12540</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1161,8 +1228,11 @@
       <c r="I21" s="4">
         <v>19390</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="6">
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1190,8 +1260,11 @@
       <c r="I22" s="4">
         <v>6220</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="5">
+        <v>6210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1219,8 +1292,11 @@
       <c r="I23" s="5">
         <v>9070</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="5">
+        <v>9010</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1248,8 +1324,11 @@
       <c r="I24" s="4">
         <v>3205</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="5">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1277,8 +1356,11 @@
       <c r="I25" s="6">
         <v>18250</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="4">
+        <v>19850</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1306,8 +1388,11 @@
       <c r="I26" s="6">
         <v>4485</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="5">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1335,8 +1420,11 @@
       <c r="I27" s="6">
         <v>3050</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="4">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1363,6 +1451,137 @@
       </c>
       <c r="I28" s="6">
         <v>13760</v>
+      </c>
+      <c r="J28" s="5">
+        <v>12830</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="6">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="6">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="6">
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="6">
+        <v>2715</v>
       </c>
     </row>
   </sheetData>
